--- a/medicine/Enfance/Sans_Atout/Sans_Atout.xlsx
+++ b/medicine/Enfance/Sans_Atout/Sans_Atout.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Sans Atout est un personnage de fiction, jeune détective et héros de romans écrits par le duo Boileau-Narcejac. Son surnom lui a été donné par ses camarades de classe après qu'il a une nouvelle fois égaré l'un de ses devoirs et que son professeur lui a dit que l'ordre dans la vie était le meilleur atout[1].  
+Sans Atout est un personnage de fiction, jeune détective et héros de romans écrits par le duo Boileau-Narcejac. Son surnom lui a été donné par ses camarades de classe après qu'il a une nouvelle fois égaré l'un de ses devoirs et que son professeur lui a dit que l'ordre dans la vie était le meilleur atout.  
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Série Sans Atout</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Sans Atout et le Cheval fantôme, Paris, Rageot (1971)
 Sans Atout contre l'homme à la dague, Paris, Rageot (1971)
